--- a/UseCaseIScenarij/ScenarijPlacanjeRacuna.xlsx
+++ b/UseCaseIScenarij/ScenarijPlacanjeRacuna.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19220"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3225807E-B687-4309-9FE6-20D4E999103C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>-</t>
   </si>
@@ -26,31 +25,28 @@
     <t>Naziv</t>
   </si>
   <si>
-    <t>Plaćanje računa_x000D_
-pomoću aplikacije</t>
+    <t>Plaćanje računa</t>
   </si>
   <si>
     <t>Opis</t>
   </si>
   <si>
-    <t>Korisnik je dužan da mjesečno_x000D_
-plaća račune, a za to mu je _x000D_
-omogućena opcija plaćanja_x000D_
-preko aplikacije</t>
+    <t>Korisnik je dužan da mjesečno
+plaća račune</t>
   </si>
   <si>
     <t>Vezani zahtjevi</t>
   </si>
   <si>
-    <t>Da postoji bar jedan _x000D_
+    <t>Da postoji bar jedan 
 račun koji nije plaćen</t>
   </si>
   <si>
     <t>Preduvjeti</t>
   </si>
   <si>
-    <t>Korisnik mora biti_x000D_
-logovan na sistem</t>
+    <t>Osoba za šalterom mora biti
+logovana na sistem</t>
   </si>
   <si>
     <t>Uspješan završetak</t>
@@ -62,97 +58,402 @@
     <t>Neuspješan završetak</t>
   </si>
   <si>
-    <t>Ukoliko korisnik na kartici_x000D_
-nema dovoljno sredstava_x000D_
-račun ostaje neplaćen</t>
-  </si>
-  <si>
     <t>Primarni akter</t>
   </si>
   <si>
-    <t>Korisnik (potrošač) - _x000D_
-osoba koja plaća račun</t>
+    <t>Korisnik (potrošač) - 
+osoba koja plaća račun i osoba za šalterom</t>
   </si>
   <si>
     <t>Ostali akteri</t>
   </si>
   <si>
-    <t>Sistem za naplatu</t>
-  </si>
-  <si>
     <t>Glavni tok</t>
   </si>
   <si>
-    <t>Korisnik odabere neki od_x000D_
-neplaćenih računa, pomoću_x000D_
-klika na dugme daje informaciju_x000D_
-sistemu da želi platiti račun,_x000D_
-sistem tu informaciju obrađuje</t>
-  </si>
-  <si>
-    <t>---</t>
+    <t>Potrošač dolazi na šalter u pošti sa računm koji želi platiti, osoba za šalterom izvršava naplatu računa, te mijenja stanje računa na potrošačevom nalogu, sa neplaćeno u plaćeno</t>
   </si>
   <si>
     <t>KORISNIK</t>
   </si>
   <si>
-    <t>SISTEM ZA NAPLATU</t>
-  </si>
-  <si>
-    <t>Interni sistem_x000D_
-(aplikacija)</t>
-  </si>
-  <si>
-    <t>1. Loginuje se na sistem</t>
-  </si>
-  <si>
-    <t>2. Bira račun koji_x000D_
-želi da plati</t>
-  </si>
-  <si>
-    <t>3. Provjerava da li _x000D_
-korisnik ima dovoljno_x000D_
-sredstava na kartici</t>
-  </si>
-  <si>
-    <t>4. Skida određeni iznos_x000D_
-sa kartice</t>
-  </si>
-  <si>
-    <t>5. Postavlja stanje_x000D_
-računa u "plaćeno"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternativno: </t>
-  </si>
-  <si>
-    <t>4. Prijavljuje grešku,_x000D_
-korisnik nema dovoljno_x000D_
-sredstava</t>
+    <t>OSOBA ZA ŠALTEROM</t>
+  </si>
+  <si>
+    <t>1. Dolazi na šalter sa računom</t>
+  </si>
+  <si>
+    <t>2. Pronalazi sve račune potrošača koji je došao, te traži račun koji želi platiti</t>
+  </si>
+  <si>
+    <t>3. Prebacuje stanje sa neplaćeno u plaćeno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,9 +461,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -176,56 +719,83 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC6F814A-A538-4EA0-BA7C-86E65F3B6F16}" name="Table1" displayName="Table1" ref="A1:B10" totalsRowShown="0">
-  <autoFilter ref="A1:B10" xr:uid="{ACF789C5-D0E4-4F13-B194-51B00A6D0ED0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{85EC39DF-FDA5-4F69-9B17-3CEE7012FD12}" name="-" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C0BBBE2B-70A9-4C53-ADA1-530162653C14}" name="--" dataDxfId="3"/>
+    <tableColumn id="1" name="-"/>
+    <tableColumn id="2" name="--"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C76E051-57F7-4C59-9A41-4984DC727216}" name="Table2" displayName="Table2" ref="A13:C21" totalsRowShown="0">
-  <autoFilter ref="A13:C21" xr:uid="{26586E59-6F7A-4A6A-A967-DEB0F475AA79}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3A27E8FA-C325-4857-8C20-DB83841AED2A}" name="-" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2A7D0AF2-30AE-4D23-A88A-F195BBA2305F}" name="--" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{ED469085-9172-4C90-BB26-C887A056EFF2}" name="---" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A13:B19" totalsRowShown="0">
+  <autoFilter ref="A13:B19"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="-"/>
+    <tableColumn id="2" name="--"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -274,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -307,26 +877,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -359,23 +912,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,31 +1053,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="28.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +1101,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="36.75" customHeight="1">
+    <row r="2" ht="36.75" customHeight="1" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -599,7 +1130,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="57" customHeight="1">
+    <row r="3" ht="57" customHeight="1" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -628,7 +1159,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="31.5" customHeight="1">
+    <row r="4" ht="31.5" customHeight="1" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -657,7 +1188,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="30">
+    <row r="5" ht="30" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -715,12 +1246,12 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="45">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -744,12 +1275,12 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="30">
+    <row r="8" ht="45" spans="1:23">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -773,12 +1304,12 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="26.25" customHeight="1">
+    <row r="9" ht="26.25" customHeight="1" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -802,12 +1333,12 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="81" customHeight="1">
+    <row r="10" ht="109" customHeight="1" spans="1:23">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -881,16 +1412,14 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
+    <row r="13" ht="13.5" customHeight="1" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -910,18 +1439,15 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="30">
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -941,11 +1467,10 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="30">
+    </row>
+    <row r="15" ht="30" spans="1:22">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -968,12 +1493,9 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="30">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -995,12 +1517,11 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" ht="45">
+    </row>
+    <row r="17" ht="45" spans="1:22">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1022,12 +1543,11 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" ht="31.5" customHeight="1">
+    </row>
+    <row r="18" ht="31.5" customHeight="1" spans="1:22">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1049,14 +1569,11 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" ht="30">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1076,9 +1593,8 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1101,15 +1617,10 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" ht="45">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1130,7 +1641,6 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1"/>
@@ -1382,9 +1892,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+    <row r="32" spans="3:23">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1407,9 +1915,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+    <row r="33" spans="3:23">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1433,7 +1939,9 @@
       <c r="W33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
